--- a/medicine/Enfance/Alice_et_l'Esprit_frappeur/Alice_et_l'Esprit_frappeur.xlsx
+++ b/medicine/Enfance/Alice_et_l'Esprit_frappeur/Alice_et_l'Esprit_frappeur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice_et_l%27Esprit_frappeur</t>
+          <t>Alice_et_l'Esprit_frappeur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et l'Esprit frappeur (titre original : The Ghost of Blackwood Hall, littéralement : Le Fantôme de la villa Blackwood) est le vingt-cinquième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
+Alice et l'Esprit frappeur (titre original : The Ghost of Blackwood Hall, littéralement : Le Fantôme de la villa Blackwood) est le vingt-cinquième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
 Aux États-Unis, le roman a été publié pour la première fois en 1948 par Grosset &amp; Dunlap, New York. En France, il est paru pour la première fois en 1973 aux éditions Hachette Jeunesse dans la collection « Bibliothèque verte ». Il n'a plus été réédité en France depuis 2002.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alice_et_l%27Esprit_frappeur</t>
+          <t>Alice_et_l'Esprit_frappeur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1973 à 1986 en langue française.
 Mme Clark, une veuve, vient consulter Alice : il y a quelque temps, elle a fait un rêve dans lequel son défunt mari l'avertissait du cambriolage imminent de sa maison, et lui ordonnait d'enterrer tous ses bijoux dans un endroit précis de la forêt. Mme Clark avait suivi les instructions, puis, après un certain temps, elle avait déterré les bijoux et les avait portés à nettoyer chez un bijoutier. Ce dernier lui avait appris que les bijoux étaient tous des faux, de pâles imitations. Quelqu'un avait substitué les vrais aux faux ... 
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alice_et_l%27Esprit_frappeur</t>
+          <t>Alice_et_l'Esprit_frappeur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,16 +562,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
-James Roy, avoué[2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, dix-huit ans, détective amateur blonde, orpheline de mère, fille de James Roy.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
 Sarah, la fidèle vieille gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Togo, le petit chien fox-terrier d'Alice.
-Personnages spécifiques à ce roman
-Mme Clark (Mrs. Putney en VO), veuve adonnée au spiritisme.
+Togo, le petit chien fox-terrier d'Alice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_l'Esprit_frappeur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_l%27Esprit_frappeur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mme Clark (Mrs. Putney en VO), veuve adonnée au spiritisme.
 Mme Imbert, femme de ménage occasionnelle des Taylor.
 Lola, dix-huit ans, fille de Mme Imbert.
 Sadie, une jeune fille.
@@ -568,31 +621,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_l%27Esprit_frappeur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_et_l'Esprit_frappeur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_l%27Esprit_frappeur</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : Toutes les éditions ont paru aux éditions Hachette.
 1973 : Alice et l'Esprit frappeur — coll. « Bibliothèque verte », cartonné (français, version originale). Illustré par Albert Chazelle. Texte français d'Anne Joba. 25 chapitres. 187 p. 
